--- a/exercise_OECD_data/2-Final_Data/deficits_allyears.xlsx
+++ b/exercise_OECD_data/2-Final_Data/deficits_allyears.xlsx
@@ -391,16 +391,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>-34472.4295401905</v>
+        <v>-34472.4295401902</v>
       </c>
       <c r="C2">
-        <v>-37817.3721264511</v>
+        <v>-37817.3721264476</v>
       </c>
       <c r="D2">
-        <v>-42534.2112580613</v>
+        <v>-42534.2112580676</v>
       </c>
       <c r="E2">
-        <v>-47805.344119447</v>
+        <v>-47805.3441194476</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>-6717.71142714615</v>
+        <v>-6717.71142714532</v>
       </c>
       <c r="C3">
-        <v>-8836.800839627451</v>
+        <v>-8836.80083962758</v>
       </c>
       <c r="D3">
-        <v>-9972.78431192139</v>
+        <v>-9972.784311912819</v>
       </c>
       <c r="E3">
-        <v>-11860.5089118019</v>
+        <v>-11860.5089118039</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>-37249.2232351687</v>
+        <v>-37249.2232351638</v>
       </c>
       <c r="C4">
-        <v>-36705.3395985131</v>
+        <v>-36705.3395985115</v>
       </c>
       <c r="D4">
-        <v>-41999.7036989068</v>
+        <v>-41999.7036989509</v>
       </c>
       <c r="E4">
-        <v>-44021.8120011669</v>
+        <v>-44021.8120011602</v>
       </c>
     </row>
     <row r="5">
@@ -448,16 +448,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>-17161.433313686</v>
+        <v>-17161.4333136787</v>
       </c>
       <c r="C5">
-        <v>-19605.5710920406</v>
+        <v>-19605.571092041</v>
       </c>
       <c r="D5">
-        <v>-23492.0543052695</v>
+        <v>-23492.054305323</v>
       </c>
       <c r="E5">
-        <v>-26044.2540339995</v>
+        <v>-26044.2540339997</v>
       </c>
     </row>
     <row r="6">
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>-73946.57756678871</v>
+        <v>-73946.5775667702</v>
       </c>
       <c r="C6">
-        <v>-92519.9588293136</v>
+        <v>-92519.9588293016</v>
       </c>
       <c r="D6">
-        <v>-72634.071474524</v>
+        <v>-72634.0714747231</v>
       </c>
       <c r="E6">
-        <v>-54645.4023504771</v>
+        <v>-54645.4023504598</v>
       </c>
     </row>
     <row r="7">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>7187.57875813721</v>
+        <v>7187.57875814499</v>
       </c>
       <c r="C7">
-        <v>1419.10753921847</v>
+        <v>1419.10753921267</v>
       </c>
       <c r="D7">
-        <v>5013.74081681692</v>
+        <v>5013.74081693561</v>
       </c>
       <c r="E7">
-        <v>10135.0189105253</v>
+        <v>10135.0189105353</v>
       </c>
     </row>
     <row r="8">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>32501.131283407</v>
+        <v>32501.1312834065</v>
       </c>
       <c r="C8">
-        <v>37491.3751431422</v>
+        <v>37491.3751431388</v>
       </c>
       <c r="D8">
-        <v>42109.8706228475</v>
+        <v>42109.8706229698</v>
       </c>
       <c r="E8">
-        <v>39601.790513912</v>
+        <v>39601.7905139148</v>
       </c>
     </row>
     <row r="9">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>28049.9150980793</v>
+        <v>28049.9150980778</v>
       </c>
       <c r="C9">
-        <v>23707.6119031394</v>
+        <v>23707.6119031399</v>
       </c>
       <c r="D9">
-        <v>18107.7847265604</v>
+        <v>18107.784726571</v>
       </c>
       <c r="E9">
-        <v>18168.9855114285</v>
+        <v>18168.9855114284</v>
       </c>
     </row>
     <row r="10">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B10">
-        <v>-263425.860209582</v>
+        <v>-263425.860209589</v>
       </c>
       <c r="C10">
-        <v>-261339.371300368</v>
+        <v>-261339.371300383</v>
       </c>
       <c r="D10">
-        <v>-253667.134256756</v>
+        <v>-253667.134256727</v>
       </c>
       <c r="E10">
-        <v>-270231.448899627</v>
+        <v>-270231.448899647</v>
       </c>
     </row>
     <row r="11">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>16487.3587605841</v>
+        <v>16487.358760561</v>
       </c>
       <c r="C11">
-        <v>21733.4659410224</v>
+        <v>21733.4659410245</v>
       </c>
       <c r="D11">
-        <v>29830.870667325</v>
+        <v>29830.8706673324</v>
       </c>
       <c r="E11">
-        <v>36499.8067617527</v>
+        <v>36499.8067617487</v>
       </c>
     </row>
     <row r="12">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B12">
-        <v>-6617.38662040501</v>
+        <v>-6617.38662040698</v>
       </c>
       <c r="C12">
-        <v>-5837.14723232194</v>
+        <v>-5837.14723232107</v>
       </c>
       <c r="D12">
-        <v>-5626.16436638649</v>
+        <v>-5626.16436637193</v>
       </c>
       <c r="E12">
-        <v>-8258.1258154678</v>
+        <v>-8258.125815464409</v>
       </c>
     </row>
     <row r="13">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B13">
-        <v>-7119.27817735639</v>
+        <v>-7119.27817735813</v>
       </c>
       <c r="C13">
-        <v>-7682.57718764557</v>
+        <v>-7682.5771876462</v>
       </c>
       <c r="D13">
-        <v>-10553.667125703</v>
+        <v>-10553.6671256988</v>
       </c>
       <c r="E13">
-        <v>-12558.5747511626</v>
+        <v>-12558.574751161</v>
       </c>
     </row>
     <row r="14">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B14">
-        <v>59091.4391698254</v>
+        <v>59091.4391698136</v>
       </c>
       <c r="C14">
-        <v>40324.4651195898</v>
+        <v>40324.4651195829</v>
       </c>
       <c r="D14">
-        <v>31692.0063642684</v>
+        <v>31692.0063643969</v>
       </c>
       <c r="E14">
-        <v>22514.3057010025</v>
+        <v>22514.3057010156</v>
       </c>
     </row>
     <row r="15">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B15">
-        <v>-42167.4448438487</v>
+        <v>-42167.4448438637</v>
       </c>
       <c r="C15">
-        <v>-45608.1039435024</v>
+        <v>-45608.1039435053</v>
       </c>
       <c r="D15">
-        <v>-52707.2126057572</v>
+        <v>-52707.2126057702</v>
       </c>
       <c r="E15">
-        <v>-59203.6499084916</v>
+        <v>-59203.6499084947</v>
       </c>
     </row>
     <row r="16">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B16">
-        <v>44101.5899679141</v>
+        <v>44101.5899679078</v>
       </c>
       <c r="C16">
-        <v>45216.6141077044</v>
+        <v>45216.6141077047</v>
       </c>
       <c r="D16">
-        <v>39178.1174773682</v>
+        <v>39178.1174773838</v>
       </c>
       <c r="E16">
-        <v>38594.4930975472</v>
+        <v>38594.4930975471</v>
       </c>
     </row>
     <row r="17">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B17">
-        <v>7946.67432743042</v>
+        <v>7946.67432743131</v>
       </c>
       <c r="C17">
-        <v>10580.8798399124</v>
+        <v>10580.8798399132</v>
       </c>
       <c r="D17">
-        <v>11389.7536844209</v>
+        <v>11389.753684437</v>
       </c>
       <c r="E17">
-        <v>8847.257007465751</v>
+        <v>8847.25700746413</v>
       </c>
     </row>
     <row r="18">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B18">
-        <v>-33285.2782287237</v>
+        <v>-33285.2782287263</v>
       </c>
       <c r="C18">
-        <v>-36488.984950814</v>
+        <v>-36488.9849508109</v>
       </c>
       <c r="D18">
-        <v>-47877.5450241762</v>
+        <v>-47877.5450241303</v>
       </c>
       <c r="E18">
-        <v>-55578.0345243416</v>
+        <v>-55578.0345243458</v>
       </c>
     </row>
     <row r="19">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B19">
-        <v>3778.64524121041</v>
+        <v>3778.64524120807</v>
       </c>
       <c r="C19">
-        <v>-704.699998536616</v>
+        <v>-704.699998537902</v>
       </c>
       <c r="D19">
-        <v>634.271422227684</v>
+        <v>634.2714221770279</v>
       </c>
       <c r="E19">
-        <v>4360.80153974131</v>
+        <v>4360.80153973714</v>
       </c>
     </row>
     <row r="20">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B20">
-        <v>-22757.5083061792</v>
+        <v>-22757.5083061805</v>
       </c>
       <c r="C20">
-        <v>-22812.1105307819</v>
+        <v>-22812.1105307831</v>
       </c>
       <c r="D20">
-        <v>-24751.0332974692</v>
+        <v>-24751.0332974961</v>
       </c>
       <c r="E20">
-        <v>-25066.1043672941</v>
+        <v>-25066.1043672949</v>
       </c>
     </row>
     <row r="21">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B21">
-        <v>-36815.5939639426</v>
+        <v>-36815.5939639449</v>
       </c>
       <c r="C21">
-        <v>-26572.9094036734</v>
+        <v>-26572.909403668</v>
       </c>
       <c r="D21">
-        <v>-28673.9149428632</v>
+        <v>-28673.9149426769</v>
       </c>
       <c r="E21">
-        <v>-37403.6059238974</v>
+        <v>-37403.6059238985</v>
       </c>
     </row>
     <row r="22">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B22">
-        <v>33115.0658165662</v>
+        <v>33115.0658165756</v>
       </c>
       <c r="C22">
-        <v>37797.6351216791</v>
+        <v>37797.6351216785</v>
       </c>
       <c r="D22">
-        <v>46108.6384368704</v>
+        <v>46108.638436906</v>
       </c>
       <c r="E22">
-        <v>60182.1100083339</v>
+        <v>60182.1100083252</v>
       </c>
     </row>
     <row r="23">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B23">
-        <v>-175338.001924217</v>
+        <v>-175338.001924199</v>
       </c>
       <c r="C23">
-        <v>-190373.142597247</v>
+        <v>-190373.142597244</v>
       </c>
       <c r="D23">
-        <v>-197640.372975822</v>
+        <v>-197640.372975938</v>
       </c>
       <c r="E23">
-        <v>-209190.657926914</v>
+        <v>-209190.657926919</v>
       </c>
     </row>
     <row r="24">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B24">
-        <v>15567.3132936284</v>
+        <v>15567.313293641</v>
       </c>
       <c r="C24">
-        <v>14672.0484777507</v>
+        <v>14672.0484777439</v>
       </c>
       <c r="D24">
-        <v>10142.5967187948</v>
+        <v>10142.596718842</v>
       </c>
       <c r="E24">
-        <v>10486.913315945</v>
+        <v>10486.9133159491</v>
       </c>
     </row>
     <row r="25">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B25">
-        <v>-38386.0181054351</v>
+        <v>-38386.0181054345</v>
       </c>
       <c r="C25">
-        <v>-39203.8872855134</v>
+        <v>-39203.8872855138</v>
       </c>
       <c r="D25">
-        <v>-42723.6556173454</v>
+        <v>-42723.6556173327</v>
       </c>
       <c r="E25">
-        <v>-46612.7802804293</v>
+        <v>-46612.7802804298</v>
       </c>
     </row>
     <row r="26">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B26">
-        <v>-22327.4171101819</v>
+        <v>-22327.4171101811</v>
       </c>
       <c r="C26">
-        <v>-23103.9209941393</v>
+        <v>-23103.9209941289</v>
       </c>
       <c r="D26">
-        <v>-27866.8682804358</v>
+        <v>-27866.868280585</v>
       </c>
       <c r="E26">
-        <v>-30172.054711878</v>
+        <v>-30172.0547118789</v>
       </c>
     </row>
     <row r="27">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B27">
-        <v>-17521.7261927003</v>
+        <v>-17521.7261926996</v>
       </c>
       <c r="C27">
-        <v>-19464.545785593</v>
+        <v>-19464.5457855931</v>
       </c>
       <c r="D27">
-        <v>-20871.8917448566</v>
+        <v>-20871.8917448822</v>
       </c>
       <c r="E27">
-        <v>-23207.5307251761</v>
+        <v>-23207.5307251759</v>
       </c>
     </row>
     <row r="28">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B28">
-        <v>35211.6561334289</v>
+        <v>35211.6561334269</v>
       </c>
       <c r="C28">
-        <v>31751.102717742</v>
+        <v>31751.1027177414</v>
       </c>
       <c r="D28">
-        <v>36179.5971326395</v>
+        <v>36179.5971326044</v>
       </c>
       <c r="E28">
-        <v>35821.5363307184</v>
+        <v>35821.5363307194</v>
       </c>
     </row>
     <row r="29">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B29">
-        <v>14439.9260440604</v>
+        <v>14439.9260440589</v>
       </c>
       <c r="C29">
-        <v>15799.1844921513</v>
+        <v>15799.1844921564</v>
       </c>
       <c r="D29">
-        <v>16788.0104312082</v>
+        <v>16788.0104312262</v>
       </c>
       <c r="E29">
-        <v>18367.8662812924</v>
+        <v>18367.8662812848</v>
       </c>
     </row>
     <row r="30">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B30">
-        <v>-22409.6589791701</v>
+        <v>-22409.6589791746</v>
       </c>
       <c r="C30">
-        <v>-22202.1829308882</v>
+        <v>-22202.1829308847</v>
       </c>
       <c r="D30">
-        <v>-26529.3491390284</v>
+        <v>-26529.3491390088</v>
       </c>
       <c r="E30">
-        <v>-30441.2104235295</v>
+        <v>-30441.21042353</v>
       </c>
     </row>
     <row r="31">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B31">
-        <v>-39716.5364625601</v>
+        <v>-39716.5364625515</v>
       </c>
       <c r="C31">
-        <v>-36282.4547998785</v>
+        <v>-36282.4547998693</v>
       </c>
       <c r="D31">
-        <v>-37548.0837031988</v>
+        <v>-37548.0837032093</v>
       </c>
       <c r="E31">
-        <v>-58478.3859013282</v>
+        <v>-58478.3859013439</v>
       </c>
     </row>
     <row r="32">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B32">
-        <v>-23712.6249182333</v>
+        <v>-23712.6249182307</v>
       </c>
       <c r="C32">
-        <v>-25703.5059277967</v>
+        <v>-25703.505927798</v>
       </c>
       <c r="D32">
-        <v>-27950.9408721769</v>
+        <v>-27950.9408721885</v>
       </c>
       <c r="E32">
-        <v>-28715.7751386903</v>
+        <v>-28715.7751386902</v>
       </c>
     </row>
     <row r="33">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B33">
-        <v>368407.332438398</v>
+        <v>368407.332438437</v>
       </c>
       <c r="C33">
-        <v>411569.799593864</v>
+        <v>411569.799593835</v>
       </c>
       <c r="D33">
-        <v>424903.628353914</v>
+        <v>424903.628353652</v>
       </c>
       <c r="E33">
-        <v>448995.341160325</v>
+        <v>448995.341160336</v>
       </c>
     </row>
     <row r="34">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B34">
-        <v>-6831.58462408872</v>
+        <v>-6831.58462407723</v>
       </c>
       <c r="C34">
-        <v>1688.94589151305</v>
+        <v>1688.94589151326</v>
       </c>
       <c r="D34">
-        <v>8181.55673042226</v>
+        <v>8181.55673009099</v>
       </c>
       <c r="E34">
-        <v>-3135.27098082576</v>
+        <v>-3135.27098081174</v>
       </c>
     </row>
     <row r="35">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B35">
-        <v>5093.22925277752</v>
+        <v>5093.22925277888</v>
       </c>
       <c r="C35">
-        <v>2703.99469356679</v>
+        <v>2703.99469356625</v>
       </c>
       <c r="D35">
-        <v>2578.12123213318</v>
+        <v>2578.12123215996</v>
       </c>
       <c r="E35">
-        <v>2239.82916721088</v>
+        <v>2239.82916720974</v>
       </c>
     </row>
     <row r="36">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B36">
-        <v>-15534.5540641005</v>
+        <v>-15534.5540641086</v>
       </c>
       <c r="C36">
-        <v>-17914.2227001581</v>
+        <v>-17914.2227001623</v>
       </c>
       <c r="D36">
-        <v>-19827.3849377089</v>
+        <v>-19827.3849377461</v>
       </c>
       <c r="E36">
-        <v>-18151.3398671724</v>
+        <v>-18151.3398671674</v>
       </c>
     </row>
     <row r="37">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B37">
-        <v>-25894.392412189</v>
+        <v>-25894.3924121905</v>
       </c>
       <c r="C37">
-        <v>-29096.8135658316</v>
+        <v>-29096.8135658286</v>
       </c>
       <c r="D37">
-        <v>-33886.6469862937</v>
+        <v>-33886.6469863271</v>
       </c>
       <c r="E37">
-        <v>-39422.6213202876</v>
+        <v>-39422.6213202831</v>
       </c>
     </row>
     <row r="38">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B38">
-        <v>-16384.0794840873</v>
+        <v>-16384.0794840849</v>
       </c>
       <c r="C38">
-        <v>-18015.9185879335</v>
+        <v>-18015.9185879346</v>
       </c>
       <c r="D38">
-        <v>-19485.5386223577</v>
+        <v>-19485.538622357</v>
       </c>
       <c r="E38">
-        <v>-19454.4619317392</v>
+        <v>-19454.4619317455</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B39">
-        <v>-59631.6905922959</v>
+        <v>-59631.6905922889</v>
       </c>
       <c r="C39">
-        <v>-58028.2864733793</v>
+        <v>-58028.2864733884</v>
       </c>
       <c r="D39">
-        <v>-73544.95581910849</v>
+        <v>-73544.95581886001</v>
       </c>
       <c r="E39">
-        <v>-90661.2114262876</v>
+        <v>-90661.2114263035</v>
       </c>
     </row>
     <row r="40">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B40">
-        <v>-6861.21621059042</v>
+        <v>-6861.21621059092</v>
       </c>
       <c r="C40">
-        <v>-7629.17377875709</v>
+        <v>-7629.17377875614</v>
       </c>
       <c r="D40">
-        <v>-9570.70280819232</v>
+        <v>-9570.70280819959</v>
       </c>
       <c r="E40">
-        <v>-11749.098210964</v>
+        <v>-11749.0982109624</v>
       </c>
     </row>
     <row r="41">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B41">
-        <v>-55991.3004607022</v>
+        <v>-55991.3004607008</v>
       </c>
       <c r="C41">
-        <v>-53791.8870491656</v>
+        <v>-53791.8870491623</v>
       </c>
       <c r="D41">
-        <v>-54506.9226557483</v>
+        <v>-54506.9226558392</v>
       </c>
       <c r="E41">
-        <v>-56011.270085677</v>
+        <v>-56011.2700856729</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B42">
-        <v>8027.6541716271</v>
+        <v>8027.65417162738</v>
       </c>
       <c r="C42">
-        <v>6668.24661921264</v>
+        <v>6668.24661921152</v>
       </c>
       <c r="D42">
-        <v>4643.40896090217</v>
+        <v>4643.40896089387</v>
       </c>
       <c r="E42">
-        <v>3827.97888485616</v>
+        <v>3827.97888485713</v>
       </c>
     </row>
     <row r="43">
@@ -1170,16 +1170,16 @@
         </is>
       </c>
       <c r="B43">
-        <v>-29802.8761084309</v>
+        <v>-29802.8761084333</v>
       </c>
       <c r="C43">
-        <v>-30875.3771379907</v>
+        <v>-30875.3771379896</v>
       </c>
       <c r="D43">
-        <v>-36364.9264323328</v>
+        <v>-36364.9264322225</v>
       </c>
       <c r="E43">
-        <v>-42608.9140261609</v>
+        <v>-42608.9140261556</v>
       </c>
     </row>
     <row r="44">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B44">
-        <v>-20311.1261507316</v>
+        <v>-20311.1261507656</v>
       </c>
       <c r="C44">
-        <v>-29285.0390663358</v>
+        <v>-29285.0390663217</v>
       </c>
       <c r="D44">
-        <v>-36282.0245099896</v>
+        <v>-36282.0245096329</v>
       </c>
       <c r="E44">
-        <v>-19195.4928731484</v>
+        <v>-19195.4928731356</v>
       </c>
     </row>
     <row r="45">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="B45">
-        <v>19126.2202976289</v>
+        <v>19126.2202976329</v>
       </c>
       <c r="C45">
-        <v>23319.7117125804</v>
+        <v>23319.7117125791</v>
       </c>
       <c r="D45">
-        <v>24337.2473530742</v>
+        <v>24337.2473530825</v>
       </c>
       <c r="E45">
-        <v>30353.5479777721</v>
+        <v>30353.5479777736</v>
       </c>
     </row>
     <row r="46">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B46">
-        <v>-10230.9826411515</v>
+        <v>-10230.982641151</v>
       </c>
       <c r="C46">
-        <v>-9743.51149243524</v>
+        <v>-9743.5114924355</v>
       </c>
       <c r="D46">
-        <v>-10193.8178614805</v>
+        <v>-10193.8178614881</v>
       </c>
       <c r="E46">
-        <v>-11461.1628021469</v>
+        <v>-11461.1628021466</v>
       </c>
     </row>
     <row r="47">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B47">
-        <v>-27198.2755616503</v>
+        <v>-27198.2755616553</v>
       </c>
       <c r="C47">
-        <v>-32139.9491099287</v>
+        <v>-32139.9491099227</v>
       </c>
       <c r="D47">
-        <v>-32288.7410308694</v>
+        <v>-32288.7410307637</v>
       </c>
       <c r="E47">
-        <v>-31551.3436241152</v>
+        <v>-31551.3436241286</v>
       </c>
     </row>
     <row r="48">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B48">
-        <v>50203.2510708131</v>
+        <v>50203.2510708038</v>
       </c>
       <c r="C48">
-        <v>58224.8572131055</v>
+        <v>58224.8572130996</v>
       </c>
       <c r="D48">
-        <v>71174.03910161489</v>
+        <v>71174.0391015663</v>
       </c>
       <c r="E48">
-        <v>90309.7043227869</v>
+        <v>90309.7043227846</v>
       </c>
     </row>
     <row r="49">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B49">
-        <v>-24091.739628946</v>
+        <v>-24091.7396289457</v>
       </c>
       <c r="C49">
-        <v>-28502.1741205172</v>
+        <v>-28502.1741205177</v>
       </c>
       <c r="D49">
-        <v>-27589.806706999</v>
+        <v>-27589.8067070075</v>
       </c>
       <c r="E49">
-        <v>-26840.1053850302</v>
+        <v>-26840.1053850336</v>
       </c>
     </row>
     <row r="50">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B50">
-        <v>-14846.0067844385</v>
+        <v>-14846.006784436</v>
       </c>
       <c r="C50">
-        <v>-15260.758849748</v>
+        <v>-15260.7588497398</v>
       </c>
       <c r="D50">
-        <v>-26489.17351627</v>
+        <v>-26489.1735163838</v>
       </c>
       <c r="E50">
-        <v>-29741.0108702972</v>
+        <v>-29741.010870299</v>
       </c>
     </row>
     <row r="51">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B51">
-        <v>-924.323406883405</v>
+        <v>-924.323406883271</v>
       </c>
       <c r="C51">
-        <v>-2960.25969351519</v>
+        <v>-2960.25969351458</v>
       </c>
       <c r="D51">
-        <v>-3719.27488795792</v>
+        <v>-3719.27488794437</v>
       </c>
       <c r="E51">
-        <v>-2627.53136182833</v>
+        <v>-2627.53136182805</v>
       </c>
     </row>
     <row r="52">
@@ -1341,13 +1341,13 @@
         </is>
       </c>
       <c r="B52">
-        <v>-43783.3719592554</v>
+        <v>-43783.3719592556</v>
       </c>
       <c r="C52">
-        <v>-26591.702905677</v>
+        <v>-26591.7029056767</v>
       </c>
       <c r="D52">
-        <v>-16176.3020782775</v>
+        <v>-16176.3020782768</v>
       </c>
       <c r="E52">
         <v>-15551.7759509892</v>
@@ -1366,7 +1366,7 @@
         <v>13532.293479968</v>
       </c>
       <c r="D53">
-        <v>10340.5809982027</v>
+        <v>10340.5809982013</v>
       </c>
       <c r="E53">
         <v>11988.0403980788</v>
@@ -1379,16 +1379,16 @@
         </is>
       </c>
       <c r="B54">
-        <v>-5142.94174861581</v>
+        <v>-5142.94174861558</v>
       </c>
       <c r="C54">
         <v>-7599.01867402789</v>
       </c>
       <c r="D54">
-        <v>-8790.46027062115</v>
+        <v>-8790.46027062127</v>
       </c>
       <c r="E54">
-        <v>-18495.677648045</v>
+        <v>-18495.6776480451</v>
       </c>
     </row>
     <row r="55">
@@ -1404,10 +1404,10 @@
         <v>2683.52090679568</v>
       </c>
       <c r="D55">
-        <v>2287.0039518493</v>
+        <v>2287.00395184924</v>
       </c>
       <c r="E55">
-        <v>560.5909558304641</v>
+        <v>560.590955830449</v>
       </c>
     </row>
     <row r="56">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B56">
-        <v>-13852.3637890142</v>
+        <v>-13852.3637890132</v>
       </c>
       <c r="C56">
         <v>7489.2892233493</v>
       </c>
       <c r="D56">
-        <v>14676.9099096134</v>
+        <v>14676.9099096123</v>
       </c>
       <c r="E56">
-        <v>446.520159842399</v>
+        <v>446.520159842166</v>
       </c>
     </row>
     <row r="57">
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="B57">
-        <v>-51076.0271530223</v>
+        <v>-51076.0271530253</v>
       </c>
       <c r="C57">
-        <v>-47218.8051353743</v>
+        <v>-47218.8051353736</v>
       </c>
       <c r="D57">
-        <v>-49941.6100315783</v>
+        <v>-49941.6100315559</v>
       </c>
       <c r="E57">
-        <v>-50008.4321078669</v>
+        <v>-50008.4321078662</v>
       </c>
     </row>
     <row r="58">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B58">
-        <v>288949.790002048</v>
+        <v>288949.790002039</v>
       </c>
       <c r="C58">
         <v>230889.528061293</v>
       </c>
       <c r="D58">
-        <v>202052.767696326</v>
+        <v>202052.76769632</v>
       </c>
       <c r="E58">
-        <v>149859.088136866</v>
+        <v>149859.088136868</v>
       </c>
     </row>
     <row r="59">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="B59">
-        <v>-1363.95343592962</v>
+        <v>-1363.95343592963</v>
       </c>
       <c r="C59">
         <v>-1863.13320681281</v>
       </c>
       <c r="D59">
-        <v>-2599.80009892128</v>
+        <v>-2599.80009892139</v>
       </c>
       <c r="E59">
-        <v>-2278.84789924108</v>
+        <v>-2278.84789924109</v>
       </c>
     </row>
     <row r="60">
@@ -1493,13 +1493,13 @@
         </is>
       </c>
       <c r="B60">
-        <v>10643.0157808739</v>
+        <v>10643.0157808738</v>
       </c>
       <c r="C60">
         <v>15446.2440442565</v>
       </c>
       <c r="D60">
-        <v>16185.4202164781</v>
+        <v>16185.4202164785</v>
       </c>
       <c r="E60">
         <v>16867.5457886032</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="B61">
-        <v>230395.621902125</v>
+        <v>230395.621902124</v>
       </c>
       <c r="C61">
         <v>231546.914240115</v>
       </c>
       <c r="D61">
-        <v>226219.14343688</v>
+        <v>226219.143436875</v>
       </c>
       <c r="E61">
         <v>224758.619586615</v>
@@ -1534,13 +1534,13 @@
         <v>11259.1956739527</v>
       </c>
       <c r="C62">
-        <v>12352.5315584876</v>
+        <v>12352.5315584877</v>
       </c>
       <c r="D62">
-        <v>13328.7014129192</v>
+        <v>13328.7014129202</v>
       </c>
       <c r="E62">
-        <v>7246.24051732234</v>
+        <v>7246.24051732246</v>
       </c>
     </row>
     <row r="63">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="B63">
-        <v>37990.5886181837</v>
+        <v>37990.5886181835</v>
       </c>
       <c r="C63">
-        <v>50713.7275296283</v>
+        <v>50713.7275296278</v>
       </c>
       <c r="D63">
-        <v>48465.4253043206</v>
+        <v>48465.4253043218</v>
       </c>
       <c r="E63">
-        <v>39258.120739797</v>
+        <v>39258.1207397968</v>
       </c>
     </row>
     <row r="64">
@@ -1569,13 +1569,13 @@
         </is>
       </c>
       <c r="B64">
-        <v>231.3519611139</v>
+        <v>231.351961113914</v>
       </c>
       <c r="C64">
-        <v>-17.0771827125853</v>
+        <v>-17.0771827125926</v>
       </c>
       <c r="D64">
-        <v>-113.570284172247</v>
+        <v>-113.57028417228</v>
       </c>
       <c r="E64">
         <v>-288.899230620803</v>
@@ -1588,13 +1588,13 @@
         </is>
       </c>
       <c r="B65">
-        <v>-2168.13288417013</v>
+        <v>-2168.1328841701</v>
       </c>
       <c r="C65">
-        <v>-3806.09838537503</v>
+        <v>-3806.098385375</v>
       </c>
       <c r="D65">
-        <v>-1241.11378856315</v>
+        <v>-1241.11378856304</v>
       </c>
       <c r="E65">
         <v>-4941.25931168662</v>
@@ -1613,10 +1613,10 @@
         <v>-23240.9676885531</v>
       </c>
       <c r="D66">
-        <v>-35116.0382466797</v>
+        <v>-35116.0382466788</v>
       </c>
       <c r="E66">
-        <v>-37120.2158330751</v>
+        <v>-37120.2158330755</v>
       </c>
     </row>
     <row r="67">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B67">
-        <v>-54907.5793823555</v>
+        <v>-54907.5793823559</v>
       </c>
       <c r="C67">
         <v>-68027.5565552679</v>
       </c>
       <c r="D67">
-        <v>-60238.8986453002</v>
+        <v>-60238.898645297</v>
       </c>
       <c r="E67">
-        <v>-63405.0331402804</v>
+        <v>-63405.0331402799</v>
       </c>
     </row>
     <row r="68">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B68">
-        <v>-6863.36699686737</v>
+        <v>-6863.3669968674</v>
       </c>
       <c r="C68">
-        <v>-6972.0001127108</v>
+        <v>-6972.00011271083</v>
       </c>
       <c r="D68">
-        <v>-6781.55346704875</v>
+        <v>-6781.55346704927</v>
       </c>
       <c r="E68">
-        <v>-4515.53194741875</v>
+        <v>-4515.53194741872</v>
       </c>
     </row>
     <row r="69">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B69">
-        <v>10008.865603842</v>
+        <v>10008.8656038419</v>
       </c>
       <c r="C69">
-        <v>10613.2130020705</v>
+        <v>10613.2130020706</v>
       </c>
       <c r="D69">
-        <v>9771.098617304449</v>
+        <v>9771.098617304569</v>
       </c>
       <c r="E69">
-        <v>6728.98181969618</v>
+        <v>6728.98181969621</v>
       </c>
     </row>
     <row r="70">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B70">
-        <v>-10364.7806286546</v>
+        <v>-10364.7806286547</v>
       </c>
       <c r="C70">
         <v>-6966.78542804031</v>
@@ -1702,13 +1702,13 @@
         </is>
       </c>
       <c r="B71">
-        <v>-49647.1010112434</v>
+        <v>-49647.1010112432</v>
       </c>
       <c r="C71">
-        <v>-52031.9171467743</v>
+        <v>-52031.9171467741</v>
       </c>
       <c r="D71">
-        <v>-91556.17165916671</v>
+        <v>-91556.1716591662</v>
       </c>
       <c r="E71">
         <v>-117085.232770215</v>
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B72">
-        <v>68298.8712804234</v>
+        <v>68298.87128042321</v>
       </c>
       <c r="C72">
-        <v>28572.4291255045</v>
+        <v>28572.4291255055</v>
       </c>
       <c r="D72">
-        <v>54990.2170088126</v>
+        <v>54990.2170088127</v>
       </c>
       <c r="E72">
-        <v>101166.974295115</v>
+        <v>101166.974295117</v>
       </c>
     </row>
     <row r="73">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B73">
-        <v>56153.692906323</v>
+        <v>56153.6929063228</v>
       </c>
       <c r="C73">
         <v>58590.8507261086</v>
       </c>
       <c r="D73">
-        <v>52877.5835650025</v>
+        <v>52877.5835649988</v>
       </c>
       <c r="E73">
-        <v>47701.910686464</v>
+        <v>47701.9106864636</v>
       </c>
     </row>
     <row r="74">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B74">
-        <v>32230.8551425507</v>
+        <v>32230.8551425488</v>
       </c>
       <c r="C74">
-        <v>77607.2496718417</v>
+        <v>77607.24967184071</v>
       </c>
       <c r="D74">
-        <v>76846.3702193998</v>
+        <v>76846.3702194044</v>
       </c>
       <c r="E74">
-        <v>7816.67221796561</v>
+        <v>7816.67221796654</v>
       </c>
     </row>
     <row r="75">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B75">
-        <v>111616.914177313</v>
+        <v>111616.914177314</v>
       </c>
       <c r="C75">
         <v>106424.099027583</v>
       </c>
       <c r="D75">
-        <v>89023.9280039562</v>
+        <v>89023.92800395429</v>
       </c>
       <c r="E75">
-        <v>99436.3252008459</v>
+        <v>99436.32520084589</v>
       </c>
     </row>
     <row r="76">
@@ -1803,10 +1803,10 @@
         <v>-1291.92715582427</v>
       </c>
       <c r="D76">
-        <v>-1415.87994862382</v>
+        <v>-1415.87994862384</v>
       </c>
       <c r="E76">
-        <v>-1607.76277860183</v>
+        <v>-1607.76277860185</v>
       </c>
     </row>
     <row r="77">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B77">
-        <v>-24922.9342297576</v>
+        <v>-24922.9342297578</v>
       </c>
       <c r="C77">
-        <v>-22459.4367706362</v>
+        <v>-22459.4367706371</v>
       </c>
       <c r="D77">
-        <v>-23488.0442837841</v>
+        <v>-23488.0442837821</v>
       </c>
       <c r="E77">
-        <v>-22916.2947760998</v>
+        <v>-22916.2947761001</v>
       </c>
     </row>
     <row r="78">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B78">
-        <v>37236.5534697988</v>
+        <v>37236.5534697985</v>
       </c>
       <c r="C78">
         <v>51825.0385656087</v>
       </c>
       <c r="D78">
-        <v>60207.8322193604</v>
+        <v>60207.83221936</v>
       </c>
       <c r="E78">
-        <v>66236.21190903299</v>
+        <v>66236.2119090325</v>
       </c>
     </row>
     <row r="79">
@@ -1860,7 +1860,7 @@
         <v>16743.9535148077</v>
       </c>
       <c r="D79">
-        <v>17753.1345222211</v>
+        <v>17753.1345222209</v>
       </c>
       <c r="E79">
         <v>16244.0054891364</v>
@@ -1873,13 +1873,13 @@
         </is>
       </c>
       <c r="B80">
-        <v>387.66945946149</v>
+        <v>387.669459461577</v>
       </c>
       <c r="C80">
         <v>416.030557607669</v>
       </c>
       <c r="D80">
-        <v>51.0187572737686</v>
+        <v>51.0187572736813</v>
       </c>
       <c r="E80">
         <v>-1381.82802633005</v>
@@ -1898,10 +1898,10 @@
         <v>-855.288440035629</v>
       </c>
       <c r="D81">
-        <v>-3928.16075483863</v>
+        <v>-3928.16075483849</v>
       </c>
       <c r="E81">
-        <v>-6594.69157765403</v>
+        <v>-6594.691577654</v>
       </c>
     </row>
     <row r="82">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B82">
-        <v>-304453.212594964</v>
+        <v>-304453.212594966</v>
       </c>
       <c r="C82">
         <v>-232639.559527672</v>
       </c>
       <c r="D82">
-        <v>-130119.825852352</v>
+        <v>-130119.825852388</v>
       </c>
       <c r="E82">
-        <v>-11827.8489386649</v>
+        <v>-11827.8489386631</v>
       </c>
     </row>
     <row r="83">
@@ -1930,13 +1930,13 @@
         </is>
       </c>
       <c r="B83">
-        <v>82208.2483231463</v>
+        <v>82208.2483231454</v>
       </c>
       <c r="C83">
         <v>40655.9855552443</v>
       </c>
       <c r="D83">
-        <v>50928.7580717359</v>
+        <v>50928.7580717338</v>
       </c>
       <c r="E83">
         <v>122893.189672472</v>
@@ -1952,10 +1952,10 @@
         <v>3433.30790653874</v>
       </c>
       <c r="C84">
-        <v>4155.33199321833</v>
+        <v>4155.33199321832</v>
       </c>
       <c r="D84">
-        <v>2453.52750542601</v>
+        <v>2453.52750542592</v>
       </c>
       <c r="E84">
         <v>3176.13662594708</v>
@@ -1968,13 +1968,13 @@
         </is>
       </c>
       <c r="B85">
-        <v>2327.49639644427</v>
+        <v>2327.49639644425</v>
       </c>
       <c r="C85">
         <v>2103.24702970939</v>
       </c>
       <c r="D85">
-        <v>2258.32776879247</v>
+        <v>2258.3277687925</v>
       </c>
       <c r="E85">
         <v>2433.77898903185</v>
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B86">
-        <v>14786.7810977893</v>
+        <v>14786.7810977895</v>
       </c>
       <c r="C86">
         <v>11990.8611688729</v>
       </c>
       <c r="D86">
-        <v>8176.34299448943</v>
+        <v>8176.34299448919</v>
       </c>
       <c r="E86">
-        <v>4929.66668020271</v>
+        <v>4929.6666802026</v>
       </c>
     </row>
     <row r="87">
@@ -2012,10 +2012,10 @@
         <v>-26695.7265470428</v>
       </c>
       <c r="D87">
-        <v>-35399.4936245598</v>
+        <v>-35399.4936245599</v>
       </c>
       <c r="E87">
-        <v>-7038.20026570662</v>
+        <v>-7038.20026570673</v>
       </c>
     </row>
     <row r="88">
@@ -2025,13 +2025,13 @@
         </is>
       </c>
       <c r="B88">
-        <v>68851.7497765781</v>
+        <v>68851.7497765787</v>
       </c>
       <c r="C88">
-        <v>61363.5747339144</v>
+        <v>61363.5747339143</v>
       </c>
       <c r="D88">
-        <v>69417.2856000015</v>
+        <v>69417.2856000035</v>
       </c>
       <c r="E88">
         <v>61714.3897992223</v>

--- a/exercise_OECD_data/2-Final_Data/deficits_allyears.xlsx
+++ b/exercise_OECD_data/2-Final_Data/deficits_allyears.xlsx
@@ -391,16 +391,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>-34472.4295401902</v>
+        <v>-34472.4295401905</v>
       </c>
       <c r="C2">
-        <v>-37817.3721264476</v>
+        <v>-37817.3721264511</v>
       </c>
       <c r="D2">
-        <v>-42534.2112580676</v>
+        <v>-42534.2112580613</v>
       </c>
       <c r="E2">
-        <v>-47805.3441194476</v>
+        <v>-47805.344119447</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>-6717.71142714532</v>
+        <v>-6717.71142714615</v>
       </c>
       <c r="C3">
-        <v>-8836.80083962758</v>
+        <v>-8836.800839627451</v>
       </c>
       <c r="D3">
-        <v>-9972.784311912819</v>
+        <v>-9972.78431192139</v>
       </c>
       <c r="E3">
-        <v>-11860.5089118039</v>
+        <v>-11860.5089118019</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>-37249.2232351638</v>
+        <v>-37249.2232351687</v>
       </c>
       <c r="C4">
-        <v>-36705.3395985115</v>
+        <v>-36705.3395985131</v>
       </c>
       <c r="D4">
-        <v>-41999.7036989509</v>
+        <v>-41999.7036989068</v>
       </c>
       <c r="E4">
-        <v>-44021.8120011602</v>
+        <v>-44021.8120011669</v>
       </c>
     </row>
     <row r="5">
@@ -448,16 +448,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>-17161.4333136787</v>
+        <v>-17161.433313686</v>
       </c>
       <c r="C5">
-        <v>-19605.571092041</v>
+        <v>-19605.5710920406</v>
       </c>
       <c r="D5">
-        <v>-23492.054305323</v>
+        <v>-23492.0543052695</v>
       </c>
       <c r="E5">
-        <v>-26044.2540339997</v>
+        <v>-26044.2540339995</v>
       </c>
     </row>
     <row r="6">
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>-73946.5775667702</v>
+        <v>-73946.57756678871</v>
       </c>
       <c r="C6">
-        <v>-92519.9588293016</v>
+        <v>-92519.9588293136</v>
       </c>
       <c r="D6">
-        <v>-72634.0714747231</v>
+        <v>-72634.071474524</v>
       </c>
       <c r="E6">
-        <v>-54645.4023504598</v>
+        <v>-54645.4023504771</v>
       </c>
     </row>
     <row r="7">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>7187.57875814499</v>
+        <v>7187.57875813721</v>
       </c>
       <c r="C7">
-        <v>1419.10753921267</v>
+        <v>1419.10753921847</v>
       </c>
       <c r="D7">
-        <v>5013.74081693561</v>
+        <v>5013.74081681692</v>
       </c>
       <c r="E7">
-        <v>10135.0189105353</v>
+        <v>10135.0189105253</v>
       </c>
     </row>
     <row r="8">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>32501.1312834065</v>
+        <v>32501.131283407</v>
       </c>
       <c r="C8">
-        <v>37491.3751431388</v>
+        <v>37491.3751431422</v>
       </c>
       <c r="D8">
-        <v>42109.8706229698</v>
+        <v>42109.8706228475</v>
       </c>
       <c r="E8">
-        <v>39601.7905139148</v>
+        <v>39601.790513912</v>
       </c>
     </row>
     <row r="9">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>28049.9150980778</v>
+        <v>28049.9150980793</v>
       </c>
       <c r="C9">
-        <v>23707.6119031399</v>
+        <v>23707.6119031394</v>
       </c>
       <c r="D9">
-        <v>18107.784726571</v>
+        <v>18107.7847265604</v>
       </c>
       <c r="E9">
-        <v>18168.9855114284</v>
+        <v>18168.9855114285</v>
       </c>
     </row>
     <row r="10">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B10">
-        <v>-263425.860209589</v>
+        <v>-263425.860209582</v>
       </c>
       <c r="C10">
-        <v>-261339.371300383</v>
+        <v>-261339.371300368</v>
       </c>
       <c r="D10">
-        <v>-253667.134256727</v>
+        <v>-253667.134256756</v>
       </c>
       <c r="E10">
-        <v>-270231.448899647</v>
+        <v>-270231.448899627</v>
       </c>
     </row>
     <row r="11">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>16487.358760561</v>
+        <v>16487.3587605841</v>
       </c>
       <c r="C11">
-        <v>21733.4659410245</v>
+        <v>21733.4659410224</v>
       </c>
       <c r="D11">
-        <v>29830.8706673324</v>
+        <v>29830.870667325</v>
       </c>
       <c r="E11">
-        <v>36499.8067617487</v>
+        <v>36499.8067617527</v>
       </c>
     </row>
     <row r="12">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B12">
-        <v>-6617.38662040698</v>
+        <v>-6617.38662040501</v>
       </c>
       <c r="C12">
-        <v>-5837.14723232107</v>
+        <v>-5837.14723232194</v>
       </c>
       <c r="D12">
-        <v>-5626.16436637193</v>
+        <v>-5626.16436638649</v>
       </c>
       <c r="E12">
-        <v>-8258.125815464409</v>
+        <v>-8258.1258154678</v>
       </c>
     </row>
     <row r="13">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B13">
-        <v>-7119.27817735813</v>
+        <v>-7119.27817735639</v>
       </c>
       <c r="C13">
-        <v>-7682.5771876462</v>
+        <v>-7682.57718764557</v>
       </c>
       <c r="D13">
-        <v>-10553.6671256988</v>
+        <v>-10553.667125703</v>
       </c>
       <c r="E13">
-        <v>-12558.574751161</v>
+        <v>-12558.5747511626</v>
       </c>
     </row>
     <row r="14">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B14">
-        <v>59091.4391698136</v>
+        <v>59091.4391698254</v>
       </c>
       <c r="C14">
-        <v>40324.4651195829</v>
+        <v>40324.4651195898</v>
       </c>
       <c r="D14">
-        <v>31692.0063643969</v>
+        <v>31692.0063642684</v>
       </c>
       <c r="E14">
-        <v>22514.3057010156</v>
+        <v>22514.3057010025</v>
       </c>
     </row>
     <row r="15">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B15">
-        <v>-42167.4448438637</v>
+        <v>-42167.4448438487</v>
       </c>
       <c r="C15">
-        <v>-45608.1039435053</v>
+        <v>-45608.1039435024</v>
       </c>
       <c r="D15">
-        <v>-52707.2126057702</v>
+        <v>-52707.2126057572</v>
       </c>
       <c r="E15">
-        <v>-59203.6499084947</v>
+        <v>-59203.6499084916</v>
       </c>
     </row>
     <row r="16">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B16">
-        <v>44101.5899679078</v>
+        <v>44101.5899679141</v>
       </c>
       <c r="C16">
-        <v>45216.6141077047</v>
+        <v>45216.6141077044</v>
       </c>
       <c r="D16">
-        <v>39178.1174773838</v>
+        <v>39178.1174773682</v>
       </c>
       <c r="E16">
-        <v>38594.4930975471</v>
+        <v>38594.4930975472</v>
       </c>
     </row>
     <row r="17">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B17">
-        <v>7946.67432743131</v>
+        <v>7946.67432743042</v>
       </c>
       <c r="C17">
-        <v>10580.8798399132</v>
+        <v>10580.8798399124</v>
       </c>
       <c r="D17">
-        <v>11389.753684437</v>
+        <v>11389.7536844209</v>
       </c>
       <c r="E17">
-        <v>8847.25700746413</v>
+        <v>8847.257007465751</v>
       </c>
     </row>
     <row r="18">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B18">
-        <v>-33285.2782287263</v>
+        <v>-33285.2782287237</v>
       </c>
       <c r="C18">
-        <v>-36488.9849508109</v>
+        <v>-36488.984950814</v>
       </c>
       <c r="D18">
-        <v>-47877.5450241303</v>
+        <v>-47877.5450241762</v>
       </c>
       <c r="E18">
-        <v>-55578.0345243458</v>
+        <v>-55578.0345243416</v>
       </c>
     </row>
     <row r="19">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B19">
-        <v>3778.64524120807</v>
+        <v>3778.64524121041</v>
       </c>
       <c r="C19">
-        <v>-704.699998537902</v>
+        <v>-704.699998536616</v>
       </c>
       <c r="D19">
-        <v>634.2714221770279</v>
+        <v>634.271422227684</v>
       </c>
       <c r="E19">
-        <v>4360.80153973714</v>
+        <v>4360.80153974131</v>
       </c>
     </row>
     <row r="20">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B20">
-        <v>-22757.5083061805</v>
+        <v>-22757.5083061792</v>
       </c>
       <c r="C20">
-        <v>-22812.1105307831</v>
+        <v>-22812.1105307819</v>
       </c>
       <c r="D20">
-        <v>-24751.0332974961</v>
+        <v>-24751.0332974692</v>
       </c>
       <c r="E20">
-        <v>-25066.1043672949</v>
+        <v>-25066.1043672941</v>
       </c>
     </row>
     <row r="21">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B21">
-        <v>-36815.5939639449</v>
+        <v>-36815.5939639426</v>
       </c>
       <c r="C21">
-        <v>-26572.909403668</v>
+        <v>-26572.9094036734</v>
       </c>
       <c r="D21">
-        <v>-28673.9149426769</v>
+        <v>-28673.9149428632</v>
       </c>
       <c r="E21">
-        <v>-37403.6059238985</v>
+        <v>-37403.6059238974</v>
       </c>
     </row>
     <row r="22">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B22">
-        <v>33115.0658165756</v>
+        <v>33115.0658165662</v>
       </c>
       <c r="C22">
-        <v>37797.6351216785</v>
+        <v>37797.6351216791</v>
       </c>
       <c r="D22">
-        <v>46108.638436906</v>
+        <v>46108.6384368704</v>
       </c>
       <c r="E22">
-        <v>60182.1100083252</v>
+        <v>60182.1100083339</v>
       </c>
     </row>
     <row r="23">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B23">
-        <v>-175338.001924199</v>
+        <v>-175338.001924217</v>
       </c>
       <c r="C23">
-        <v>-190373.142597244</v>
+        <v>-190373.142597247</v>
       </c>
       <c r="D23">
-        <v>-197640.372975938</v>
+        <v>-197640.372975822</v>
       </c>
       <c r="E23">
-        <v>-209190.657926919</v>
+        <v>-209190.657926914</v>
       </c>
     </row>
     <row r="24">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B24">
-        <v>15567.313293641</v>
+        <v>15567.3132936284</v>
       </c>
       <c r="C24">
-        <v>14672.0484777439</v>
+        <v>14672.0484777507</v>
       </c>
       <c r="D24">
-        <v>10142.596718842</v>
+        <v>10142.5967187948</v>
       </c>
       <c r="E24">
-        <v>10486.9133159491</v>
+        <v>10486.913315945</v>
       </c>
     </row>
     <row r="25">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B25">
-        <v>-38386.0181054345</v>
+        <v>-38386.0181054351</v>
       </c>
       <c r="C25">
-        <v>-39203.8872855138</v>
+        <v>-39203.8872855134</v>
       </c>
       <c r="D25">
-        <v>-42723.6556173327</v>
+        <v>-42723.6556173454</v>
       </c>
       <c r="E25">
-        <v>-46612.7802804298</v>
+        <v>-46612.7802804293</v>
       </c>
     </row>
     <row r="26">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B26">
-        <v>-22327.4171101811</v>
+        <v>-22327.4171101819</v>
       </c>
       <c r="C26">
-        <v>-23103.9209941289</v>
+        <v>-23103.9209941393</v>
       </c>
       <c r="D26">
-        <v>-27866.868280585</v>
+        <v>-27866.8682804358</v>
       </c>
       <c r="E26">
-        <v>-30172.0547118789</v>
+        <v>-30172.054711878</v>
       </c>
     </row>
     <row r="27">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B27">
-        <v>-17521.7261926996</v>
+        <v>-17521.7261927003</v>
       </c>
       <c r="C27">
-        <v>-19464.5457855931</v>
+        <v>-19464.545785593</v>
       </c>
       <c r="D27">
-        <v>-20871.8917448822</v>
+        <v>-20871.8917448566</v>
       </c>
       <c r="E27">
-        <v>-23207.5307251759</v>
+        <v>-23207.5307251761</v>
       </c>
     </row>
     <row r="28">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B28">
-        <v>35211.6561334269</v>
+        <v>35211.6561334289</v>
       </c>
       <c r="C28">
-        <v>31751.1027177414</v>
+        <v>31751.102717742</v>
       </c>
       <c r="D28">
-        <v>36179.5971326044</v>
+        <v>36179.5971326395</v>
       </c>
       <c r="E28">
-        <v>35821.5363307194</v>
+        <v>35821.5363307184</v>
       </c>
     </row>
     <row r="29">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B29">
-        <v>14439.9260440589</v>
+        <v>14439.9260440604</v>
       </c>
       <c r="C29">
-        <v>15799.1844921564</v>
+        <v>15799.1844921513</v>
       </c>
       <c r="D29">
-        <v>16788.0104312262</v>
+        <v>16788.0104312082</v>
       </c>
       <c r="E29">
-        <v>18367.8662812848</v>
+        <v>18367.8662812924</v>
       </c>
     </row>
     <row r="30">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B30">
-        <v>-22409.6589791746</v>
+        <v>-22409.6589791701</v>
       </c>
       <c r="C30">
-        <v>-22202.1829308847</v>
+        <v>-22202.1829308882</v>
       </c>
       <c r="D30">
-        <v>-26529.3491390088</v>
+        <v>-26529.3491390284</v>
       </c>
       <c r="E30">
-        <v>-30441.21042353</v>
+        <v>-30441.2104235295</v>
       </c>
     </row>
     <row r="31">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B31">
-        <v>-39716.5364625515</v>
+        <v>-39716.5364625601</v>
       </c>
       <c r="C31">
-        <v>-36282.4547998693</v>
+        <v>-36282.4547998785</v>
       </c>
       <c r="D31">
-        <v>-37548.0837032093</v>
+        <v>-37548.0837031988</v>
       </c>
       <c r="E31">
-        <v>-58478.3859013439</v>
+        <v>-58478.3859013282</v>
       </c>
     </row>
     <row r="32">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B32">
-        <v>-23712.6249182307</v>
+        <v>-23712.6249182333</v>
       </c>
       <c r="C32">
-        <v>-25703.505927798</v>
+        <v>-25703.5059277967</v>
       </c>
       <c r="D32">
-        <v>-27950.9408721885</v>
+        <v>-27950.9408721769</v>
       </c>
       <c r="E32">
-        <v>-28715.7751386902</v>
+        <v>-28715.7751386903</v>
       </c>
     </row>
     <row r="33">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B33">
-        <v>368407.332438437</v>
+        <v>368407.332438398</v>
       </c>
       <c r="C33">
-        <v>411569.799593835</v>
+        <v>411569.799593864</v>
       </c>
       <c r="D33">
-        <v>424903.628353652</v>
+        <v>424903.628353914</v>
       </c>
       <c r="E33">
-        <v>448995.341160336</v>
+        <v>448995.341160325</v>
       </c>
     </row>
     <row r="34">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B34">
-        <v>-6831.58462407723</v>
+        <v>-6831.58462408872</v>
       </c>
       <c r="C34">
-        <v>1688.94589151326</v>
+        <v>1688.94589151305</v>
       </c>
       <c r="D34">
-        <v>8181.55673009099</v>
+        <v>8181.55673042226</v>
       </c>
       <c r="E34">
-        <v>-3135.27098081174</v>
+        <v>-3135.27098082576</v>
       </c>
     </row>
     <row r="35">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B35">
-        <v>5093.22925277888</v>
+        <v>5093.22925277752</v>
       </c>
       <c r="C35">
-        <v>2703.99469356625</v>
+        <v>2703.99469356679</v>
       </c>
       <c r="D35">
-        <v>2578.12123215996</v>
+        <v>2578.12123213318</v>
       </c>
       <c r="E35">
-        <v>2239.82916720974</v>
+        <v>2239.82916721088</v>
       </c>
     </row>
     <row r="36">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B36">
-        <v>-15534.5540641086</v>
+        <v>-15534.5540641005</v>
       </c>
       <c r="C36">
-        <v>-17914.2227001623</v>
+        <v>-17914.2227001581</v>
       </c>
       <c r="D36">
-        <v>-19827.3849377461</v>
+        <v>-19827.3849377089</v>
       </c>
       <c r="E36">
-        <v>-18151.3398671674</v>
+        <v>-18151.3398671724</v>
       </c>
     </row>
     <row r="37">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B37">
-        <v>-25894.3924121905</v>
+        <v>-25894.392412189</v>
       </c>
       <c r="C37">
-        <v>-29096.8135658286</v>
+        <v>-29096.8135658316</v>
       </c>
       <c r="D37">
-        <v>-33886.6469863271</v>
+        <v>-33886.6469862937</v>
       </c>
       <c r="E37">
-        <v>-39422.6213202831</v>
+        <v>-39422.6213202876</v>
       </c>
     </row>
     <row r="38">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B38">
-        <v>-16384.0794840849</v>
+        <v>-16384.0794840873</v>
       </c>
       <c r="C38">
-        <v>-18015.9185879346</v>
+        <v>-18015.9185879335</v>
       </c>
       <c r="D38">
-        <v>-19485.538622357</v>
+        <v>-19485.5386223577</v>
       </c>
       <c r="E38">
-        <v>-19454.4619317455</v>
+        <v>-19454.4619317392</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B39">
-        <v>-59631.6905922889</v>
+        <v>-59631.6905922959</v>
       </c>
       <c r="C39">
-        <v>-58028.2864733884</v>
+        <v>-58028.2864733793</v>
       </c>
       <c r="D39">
-        <v>-73544.95581886001</v>
+        <v>-73544.95581910849</v>
       </c>
       <c r="E39">
-        <v>-90661.2114263035</v>
+        <v>-90661.2114262876</v>
       </c>
     </row>
     <row r="40">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B40">
-        <v>-6861.21621059092</v>
+        <v>-6861.21621059042</v>
       </c>
       <c r="C40">
-        <v>-7629.17377875614</v>
+        <v>-7629.17377875709</v>
       </c>
       <c r="D40">
-        <v>-9570.70280819959</v>
+        <v>-9570.70280819232</v>
       </c>
       <c r="E40">
-        <v>-11749.0982109624</v>
+        <v>-11749.098210964</v>
       </c>
     </row>
     <row r="41">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B41">
-        <v>-55991.3004607008</v>
+        <v>-55991.3004607022</v>
       </c>
       <c r="C41">
-        <v>-53791.8870491623</v>
+        <v>-53791.8870491656</v>
       </c>
       <c r="D41">
-        <v>-54506.9226558392</v>
+        <v>-54506.9226557483</v>
       </c>
       <c r="E41">
-        <v>-56011.2700856729</v>
+        <v>-56011.270085677</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B42">
-        <v>8027.65417162738</v>
+        <v>8027.6541716271</v>
       </c>
       <c r="C42">
-        <v>6668.24661921152</v>
+        <v>6668.24661921264</v>
       </c>
       <c r="D42">
-        <v>4643.40896089387</v>
+        <v>4643.40896090217</v>
       </c>
       <c r="E42">
-        <v>3827.97888485713</v>
+        <v>3827.97888485616</v>
       </c>
     </row>
     <row r="43">
@@ -1170,16 +1170,16 @@
         </is>
       </c>
       <c r="B43">
-        <v>-29802.8761084333</v>
+        <v>-29802.8761084309</v>
       </c>
       <c r="C43">
-        <v>-30875.3771379896</v>
+        <v>-30875.3771379907</v>
       </c>
       <c r="D43">
-        <v>-36364.9264322225</v>
+        <v>-36364.9264323328</v>
       </c>
       <c r="E43">
-        <v>-42608.9140261556</v>
+        <v>-42608.9140261609</v>
       </c>
     </row>
     <row r="44">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B44">
-        <v>-20311.1261507656</v>
+        <v>-20311.1261507316</v>
       </c>
       <c r="C44">
-        <v>-29285.0390663217</v>
+        <v>-29285.0390663358</v>
       </c>
       <c r="D44">
-        <v>-36282.0245096329</v>
+        <v>-36282.0245099896</v>
       </c>
       <c r="E44">
-        <v>-19195.4928731356</v>
+        <v>-19195.4928731484</v>
       </c>
     </row>
     <row r="45">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="B45">
-        <v>19126.2202976329</v>
+        <v>19126.2202976289</v>
       </c>
       <c r="C45">
-        <v>23319.7117125791</v>
+        <v>23319.7117125804</v>
       </c>
       <c r="D45">
-        <v>24337.2473530825</v>
+        <v>24337.2473530742</v>
       </c>
       <c r="E45">
-        <v>30353.5479777736</v>
+        <v>30353.5479777721</v>
       </c>
     </row>
     <row r="46">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B46">
-        <v>-10230.982641151</v>
+        <v>-10230.9826411515</v>
       </c>
       <c r="C46">
-        <v>-9743.5114924355</v>
+        <v>-9743.51149243524</v>
       </c>
       <c r="D46">
-        <v>-10193.8178614881</v>
+        <v>-10193.8178614805</v>
       </c>
       <c r="E46">
-        <v>-11461.1628021466</v>
+        <v>-11461.1628021469</v>
       </c>
     </row>
     <row r="47">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B47">
-        <v>-27198.2755616553</v>
+        <v>-27198.2755616503</v>
       </c>
       <c r="C47">
-        <v>-32139.9491099227</v>
+        <v>-32139.9491099287</v>
       </c>
       <c r="D47">
-        <v>-32288.7410307637</v>
+        <v>-32288.7410308694</v>
       </c>
       <c r="E47">
-        <v>-31551.3436241286</v>
+        <v>-31551.3436241152</v>
       </c>
     </row>
     <row r="48">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B48">
-        <v>50203.2510708038</v>
+        <v>50203.2510708131</v>
       </c>
       <c r="C48">
-        <v>58224.8572130996</v>
+        <v>58224.8572131055</v>
       </c>
       <c r="D48">
-        <v>71174.0391015663</v>
+        <v>71174.03910161489</v>
       </c>
       <c r="E48">
-        <v>90309.7043227846</v>
+        <v>90309.7043227869</v>
       </c>
     </row>
     <row r="49">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B49">
-        <v>-24091.7396289457</v>
+        <v>-24091.739628946</v>
       </c>
       <c r="C49">
-        <v>-28502.1741205177</v>
+        <v>-28502.1741205172</v>
       </c>
       <c r="D49">
-        <v>-27589.8067070075</v>
+        <v>-27589.806706999</v>
       </c>
       <c r="E49">
-        <v>-26840.1053850336</v>
+        <v>-26840.1053850302</v>
       </c>
     </row>
     <row r="50">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B50">
-        <v>-14846.006784436</v>
+        <v>-14846.0067844385</v>
       </c>
       <c r="C50">
-        <v>-15260.7588497398</v>
+        <v>-15260.758849748</v>
       </c>
       <c r="D50">
-        <v>-26489.1735163838</v>
+        <v>-26489.17351627</v>
       </c>
       <c r="E50">
-        <v>-29741.010870299</v>
+        <v>-29741.0108702972</v>
       </c>
     </row>
     <row r="51">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B51">
-        <v>-924.323406883271</v>
+        <v>-924.323406883405</v>
       </c>
       <c r="C51">
-        <v>-2960.25969351458</v>
+        <v>-2960.25969351519</v>
       </c>
       <c r="D51">
-        <v>-3719.27488794437</v>
+        <v>-3719.27488795792</v>
       </c>
       <c r="E51">
-        <v>-2627.53136182805</v>
+        <v>-2627.53136182833</v>
       </c>
     </row>
     <row r="52">
@@ -1341,13 +1341,13 @@
         </is>
       </c>
       <c r="B52">
-        <v>-43783.3719592556</v>
+        <v>-43783.3719592554</v>
       </c>
       <c r="C52">
-        <v>-26591.7029056767</v>
+        <v>-26591.702905677</v>
       </c>
       <c r="D52">
-        <v>-16176.3020782768</v>
+        <v>-16176.3020782775</v>
       </c>
       <c r="E52">
         <v>-15551.7759509892</v>
@@ -1366,7 +1366,7 @@
         <v>13532.293479968</v>
       </c>
       <c r="D53">
-        <v>10340.5809982013</v>
+        <v>10340.5809982027</v>
       </c>
       <c r="E53">
         <v>11988.0403980788</v>
@@ -1379,16 +1379,16 @@
         </is>
       </c>
       <c r="B54">
-        <v>-5142.94174861558</v>
+        <v>-5142.94174861581</v>
       </c>
       <c r="C54">
         <v>-7599.01867402789</v>
       </c>
       <c r="D54">
-        <v>-8790.46027062127</v>
+        <v>-8790.46027062115</v>
       </c>
       <c r="E54">
-        <v>-18495.6776480451</v>
+        <v>-18495.677648045</v>
       </c>
     </row>
     <row r="55">
@@ -1404,10 +1404,10 @@
         <v>2683.52090679568</v>
       </c>
       <c r="D55">
-        <v>2287.00395184924</v>
+        <v>2287.0039518493</v>
       </c>
       <c r="E55">
-        <v>560.590955830449</v>
+        <v>560.5909558304641</v>
       </c>
     </row>
     <row r="56">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B56">
-        <v>-13852.3637890132</v>
+        <v>-13852.3637890142</v>
       </c>
       <c r="C56">
         <v>7489.2892233493</v>
       </c>
       <c r="D56">
-        <v>14676.9099096123</v>
+        <v>14676.9099096134</v>
       </c>
       <c r="E56">
-        <v>446.520159842166</v>
+        <v>446.520159842399</v>
       </c>
     </row>
     <row r="57">
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="B57">
-        <v>-51076.0271530253</v>
+        <v>-51076.0271530223</v>
       </c>
       <c r="C57">
-        <v>-47218.8051353736</v>
+        <v>-47218.8051353743</v>
       </c>
       <c r="D57">
-        <v>-49941.6100315559</v>
+        <v>-49941.6100315783</v>
       </c>
       <c r="E57">
-        <v>-50008.4321078662</v>
+        <v>-50008.4321078669</v>
       </c>
     </row>
     <row r="58">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B58">
-        <v>288949.790002039</v>
+        <v>288949.790002048</v>
       </c>
       <c r="C58">
         <v>230889.528061293</v>
       </c>
       <c r="D58">
-        <v>202052.76769632</v>
+        <v>202052.767696326</v>
       </c>
       <c r="E58">
-        <v>149859.088136868</v>
+        <v>149859.088136866</v>
       </c>
     </row>
     <row r="59">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="B59">
-        <v>-1363.95343592963</v>
+        <v>-1363.95343592962</v>
       </c>
       <c r="C59">
         <v>-1863.13320681281</v>
       </c>
       <c r="D59">
-        <v>-2599.80009892139</v>
+        <v>-2599.80009892128</v>
       </c>
       <c r="E59">
-        <v>-2278.84789924109</v>
+        <v>-2278.84789924108</v>
       </c>
     </row>
     <row r="60">
@@ -1493,13 +1493,13 @@
         </is>
       </c>
       <c r="B60">
-        <v>10643.0157808738</v>
+        <v>10643.0157808739</v>
       </c>
       <c r="C60">
         <v>15446.2440442565</v>
       </c>
       <c r="D60">
-        <v>16185.4202164785</v>
+        <v>16185.4202164781</v>
       </c>
       <c r="E60">
         <v>16867.5457886032</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="B61">
-        <v>230395.621902124</v>
+        <v>230395.621902125</v>
       </c>
       <c r="C61">
         <v>231546.914240115</v>
       </c>
       <c r="D61">
-        <v>226219.143436875</v>
+        <v>226219.14343688</v>
       </c>
       <c r="E61">
         <v>224758.619586615</v>
@@ -1534,13 +1534,13 @@
         <v>11259.1956739527</v>
       </c>
       <c r="C62">
-        <v>12352.5315584877</v>
+        <v>12352.5315584876</v>
       </c>
       <c r="D62">
-        <v>13328.7014129202</v>
+        <v>13328.7014129192</v>
       </c>
       <c r="E62">
-        <v>7246.24051732246</v>
+        <v>7246.24051732234</v>
       </c>
     </row>
     <row r="63">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="B63">
-        <v>37990.5886181835</v>
+        <v>37990.5886181837</v>
       </c>
       <c r="C63">
-        <v>50713.7275296278</v>
+        <v>50713.7275296283</v>
       </c>
       <c r="D63">
-        <v>48465.4253043218</v>
+        <v>48465.4253043206</v>
       </c>
       <c r="E63">
-        <v>39258.1207397968</v>
+        <v>39258.120739797</v>
       </c>
     </row>
     <row r="64">
@@ -1569,13 +1569,13 @@
         </is>
       </c>
       <c r="B64">
-        <v>231.351961113914</v>
+        <v>231.3519611139</v>
       </c>
       <c r="C64">
-        <v>-17.0771827125926</v>
+        <v>-17.0771827125853</v>
       </c>
       <c r="D64">
-        <v>-113.57028417228</v>
+        <v>-113.570284172247</v>
       </c>
       <c r="E64">
         <v>-288.899230620803</v>
@@ -1588,13 +1588,13 @@
         </is>
       </c>
       <c r="B65">
-        <v>-2168.1328841701</v>
+        <v>-2168.13288417013</v>
       </c>
       <c r="C65">
-        <v>-3806.098385375</v>
+        <v>-3806.09838537503</v>
       </c>
       <c r="D65">
-        <v>-1241.11378856304</v>
+        <v>-1241.11378856315</v>
       </c>
       <c r="E65">
         <v>-4941.25931168662</v>
@@ -1613,10 +1613,10 @@
         <v>-23240.9676885531</v>
       </c>
       <c r="D66">
-        <v>-35116.0382466788</v>
+        <v>-35116.0382466797</v>
       </c>
       <c r="E66">
-        <v>-37120.2158330755</v>
+        <v>-37120.2158330751</v>
       </c>
     </row>
     <row r="67">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B67">
-        <v>-54907.5793823559</v>
+        <v>-54907.5793823555</v>
       </c>
       <c r="C67">
         <v>-68027.5565552679</v>
       </c>
       <c r="D67">
-        <v>-60238.898645297</v>
+        <v>-60238.8986453002</v>
       </c>
       <c r="E67">
-        <v>-63405.0331402799</v>
+        <v>-63405.0331402804</v>
       </c>
     </row>
     <row r="68">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B68">
-        <v>-6863.3669968674</v>
+        <v>-6863.36699686737</v>
       </c>
       <c r="C68">
-        <v>-6972.00011271083</v>
+        <v>-6972.0001127108</v>
       </c>
       <c r="D68">
-        <v>-6781.55346704927</v>
+        <v>-6781.55346704875</v>
       </c>
       <c r="E68">
-        <v>-4515.53194741872</v>
+        <v>-4515.53194741875</v>
       </c>
     </row>
     <row r="69">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B69">
-        <v>10008.8656038419</v>
+        <v>10008.865603842</v>
       </c>
       <c r="C69">
-        <v>10613.2130020706</v>
+        <v>10613.2130020705</v>
       </c>
       <c r="D69">
-        <v>9771.098617304569</v>
+        <v>9771.098617304449</v>
       </c>
       <c r="E69">
-        <v>6728.98181969621</v>
+        <v>6728.98181969618</v>
       </c>
     </row>
     <row r="70">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B70">
-        <v>-10364.7806286547</v>
+        <v>-10364.7806286546</v>
       </c>
       <c r="C70">
         <v>-6966.78542804031</v>
@@ -1702,13 +1702,13 @@
         </is>
       </c>
       <c r="B71">
-        <v>-49647.1010112432</v>
+        <v>-49647.1010112434</v>
       </c>
       <c r="C71">
-        <v>-52031.9171467741</v>
+        <v>-52031.9171467743</v>
       </c>
       <c r="D71">
-        <v>-91556.1716591662</v>
+        <v>-91556.17165916671</v>
       </c>
       <c r="E71">
         <v>-117085.232770215</v>
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B72">
-        <v>68298.87128042321</v>
+        <v>68298.8712804234</v>
       </c>
       <c r="C72">
-        <v>28572.4291255055</v>
+        <v>28572.4291255045</v>
       </c>
       <c r="D72">
-        <v>54990.2170088127</v>
+        <v>54990.2170088126</v>
       </c>
       <c r="E72">
-        <v>101166.974295117</v>
+        <v>101166.974295115</v>
       </c>
     </row>
     <row r="73">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B73">
-        <v>56153.6929063228</v>
+        <v>56153.692906323</v>
       </c>
       <c r="C73">
         <v>58590.8507261086</v>
       </c>
       <c r="D73">
-        <v>52877.5835649988</v>
+        <v>52877.5835650025</v>
       </c>
       <c r="E73">
-        <v>47701.9106864636</v>
+        <v>47701.910686464</v>
       </c>
     </row>
     <row r="74">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B74">
-        <v>32230.8551425488</v>
+        <v>32230.8551425507</v>
       </c>
       <c r="C74">
-        <v>77607.24967184071</v>
+        <v>77607.2496718417</v>
       </c>
       <c r="D74">
-        <v>76846.3702194044</v>
+        <v>76846.3702193998</v>
       </c>
       <c r="E74">
-        <v>7816.67221796654</v>
+        <v>7816.67221796561</v>
       </c>
     </row>
     <row r="75">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B75">
-        <v>111616.914177314</v>
+        <v>111616.914177313</v>
       </c>
       <c r="C75">
         <v>106424.099027583</v>
       </c>
       <c r="D75">
-        <v>89023.92800395429</v>
+        <v>89023.9280039562</v>
       </c>
       <c r="E75">
-        <v>99436.32520084589</v>
+        <v>99436.3252008459</v>
       </c>
     </row>
     <row r="76">
@@ -1803,10 +1803,10 @@
         <v>-1291.92715582427</v>
       </c>
       <c r="D76">
-        <v>-1415.87994862384</v>
+        <v>-1415.87994862382</v>
       </c>
       <c r="E76">
-        <v>-1607.76277860185</v>
+        <v>-1607.76277860183</v>
       </c>
     </row>
     <row r="77">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B77">
-        <v>-24922.9342297578</v>
+        <v>-24922.9342297576</v>
       </c>
       <c r="C77">
-        <v>-22459.4367706371</v>
+        <v>-22459.4367706362</v>
       </c>
       <c r="D77">
-        <v>-23488.0442837821</v>
+        <v>-23488.0442837841</v>
       </c>
       <c r="E77">
-        <v>-22916.2947761001</v>
+        <v>-22916.2947760998</v>
       </c>
     </row>
     <row r="78">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B78">
-        <v>37236.5534697985</v>
+        <v>37236.5534697988</v>
       </c>
       <c r="C78">
         <v>51825.0385656087</v>
       </c>
       <c r="D78">
-        <v>60207.83221936</v>
+        <v>60207.8322193604</v>
       </c>
       <c r="E78">
-        <v>66236.2119090325</v>
+        <v>66236.21190903299</v>
       </c>
     </row>
     <row r="79">
@@ -1860,7 +1860,7 @@
         <v>16743.9535148077</v>
       </c>
       <c r="D79">
-        <v>17753.1345222209</v>
+        <v>17753.1345222211</v>
       </c>
       <c r="E79">
         <v>16244.0054891364</v>
@@ -1873,13 +1873,13 @@
         </is>
       </c>
       <c r="B80">
-        <v>387.669459461577</v>
+        <v>387.66945946149</v>
       </c>
       <c r="C80">
         <v>416.030557607669</v>
       </c>
       <c r="D80">
-        <v>51.0187572736813</v>
+        <v>51.0187572737686</v>
       </c>
       <c r="E80">
         <v>-1381.82802633005</v>
@@ -1898,10 +1898,10 @@
         <v>-855.288440035629</v>
       </c>
       <c r="D81">
-        <v>-3928.16075483849</v>
+        <v>-3928.16075483863</v>
       </c>
       <c r="E81">
-        <v>-6594.691577654</v>
+        <v>-6594.69157765403</v>
       </c>
     </row>
     <row r="82">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B82">
-        <v>-304453.212594966</v>
+        <v>-304453.212594964</v>
       </c>
       <c r="C82">
         <v>-232639.559527672</v>
       </c>
       <c r="D82">
-        <v>-130119.825852388</v>
+        <v>-130119.825852352</v>
       </c>
       <c r="E82">
-        <v>-11827.8489386631</v>
+        <v>-11827.8489386649</v>
       </c>
     </row>
     <row r="83">
@@ -1930,13 +1930,13 @@
         </is>
       </c>
       <c r="B83">
-        <v>82208.2483231454</v>
+        <v>82208.2483231463</v>
       </c>
       <c r="C83">
         <v>40655.9855552443</v>
       </c>
       <c r="D83">
-        <v>50928.7580717338</v>
+        <v>50928.7580717359</v>
       </c>
       <c r="E83">
         <v>122893.189672472</v>
@@ -1952,10 +1952,10 @@
         <v>3433.30790653874</v>
       </c>
       <c r="C84">
-        <v>4155.33199321832</v>
+        <v>4155.33199321833</v>
       </c>
       <c r="D84">
-        <v>2453.52750542592</v>
+        <v>2453.52750542601</v>
       </c>
       <c r="E84">
         <v>3176.13662594708</v>
@@ -1968,13 +1968,13 @@
         </is>
       </c>
       <c r="B85">
-        <v>2327.49639644425</v>
+        <v>2327.49639644427</v>
       </c>
       <c r="C85">
         <v>2103.24702970939</v>
       </c>
       <c r="D85">
-        <v>2258.3277687925</v>
+        <v>2258.32776879247</v>
       </c>
       <c r="E85">
         <v>2433.77898903185</v>
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B86">
-        <v>14786.7810977895</v>
+        <v>14786.7810977893</v>
       </c>
       <c r="C86">
         <v>11990.8611688729</v>
       </c>
       <c r="D86">
-        <v>8176.34299448919</v>
+        <v>8176.34299448943</v>
       </c>
       <c r="E86">
-        <v>4929.6666802026</v>
+        <v>4929.66668020271</v>
       </c>
     </row>
     <row r="87">
@@ -2012,10 +2012,10 @@
         <v>-26695.7265470428</v>
       </c>
       <c r="D87">
-        <v>-35399.4936245599</v>
+        <v>-35399.4936245598</v>
       </c>
       <c r="E87">
-        <v>-7038.20026570673</v>
+        <v>-7038.20026570662</v>
       </c>
     </row>
     <row r="88">
@@ -2025,13 +2025,13 @@
         </is>
       </c>
       <c r="B88">
-        <v>68851.7497765787</v>
+        <v>68851.7497765781</v>
       </c>
       <c r="C88">
-        <v>61363.5747339143</v>
+        <v>61363.5747339144</v>
       </c>
       <c r="D88">
-        <v>69417.2856000035</v>
+        <v>69417.2856000015</v>
       </c>
       <c r="E88">
         <v>61714.3897992223</v>
